--- a/data/trans_orig/P36BPD10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DBDA09A-E1DB-4EF8-8AE8-69C3E0DFD311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD28F583-08A9-4BEA-8BD0-50D4C5A5A38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{323DDA8F-0135-4D0F-BFFF-FC5BF78B8E57}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8672254C-8D11-46B9-BCAB-D5CBB94827D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="265">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>Uno por semana</t>
@@ -104,28 +104,28 @@
     <t>39,73%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,28 +134,28 @@
     <t>57,42%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
   </si>
   <si>
     <t>57,65%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>57,53%</t>
   </si>
   <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,493 +167,502 @@
     <t>20,21%</t>
   </si>
   <si>
-    <t>15,68%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>34,94%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -662,109 +671,115 @@
     <t>5,96%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>73,55%</t>
   </si>
   <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>20,07%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>19,58%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>11,24%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>9,88%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>46,19%</t>
+    <t>46,39%</t>
   </si>
   <si>
     <t>51,14%</t>
@@ -773,7 +788,7 @@
     <t>44,64%</t>
   </si>
   <si>
-    <t>40,12%</t>
+    <t>40,21%</t>
   </si>
   <si>
     <t>46,75%</t>
@@ -782,37 +797,37 @@
     <t>46,33%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>41,92%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
   </si>
   <si>
     <t>47,04%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E84ADCF-460F-4CF5-8024-83D92CCF25B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF84B8B-80F2-417A-9CE4-68AD817545E9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2041,7 +2056,7 @@
         <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>259</v>
@@ -2050,13 +2065,13 @@
         <v>219363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2086,13 @@
         <v>201537</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2086,13 +2101,13 @@
         <v>278930</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>569</v>
@@ -2101,13 +2116,13 @@
         <v>480467</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,7 +2178,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2175,13 +2190,13 @@
         <v>5768</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2190,13 +2205,13 @@
         <v>2496</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2205,13 +2220,13 @@
         <v>8264</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2241,13 @@
         <v>60054</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>115</v>
@@ -2241,13 +2256,13 @@
         <v>53170</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -2256,13 +2271,13 @@
         <v>113224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2292,13 @@
         <v>130926</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>370</v>
@@ -2292,13 +2307,13 @@
         <v>175830</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>563</v>
@@ -2307,13 +2322,13 @@
         <v>306756</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2384,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2381,13 +2396,13 @@
         <v>30622</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -2396,13 +2411,13 @@
         <v>17521</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -2411,13 +2426,13 @@
         <v>48142</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2447,13 @@
         <v>120612</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>205</v>
@@ -2447,13 +2462,13 @@
         <v>122878</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -2462,13 +2477,13 @@
         <v>243490</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2498,13 @@
         <v>125989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>228</v>
@@ -2498,13 +2513,13 @@
         <v>135223</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>401</v>
@@ -2513,13 +2528,13 @@
         <v>261212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,7 +2590,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2587,13 +2602,13 @@
         <v>85792</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -2602,13 +2617,13 @@
         <v>58619</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>163</v>
@@ -2617,13 +2632,13 @@
         <v>144411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2653,13 @@
         <v>212344</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>326</v>
@@ -2653,13 +2668,13 @@
         <v>237435</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>531</v>
@@ -2668,13 +2683,13 @@
         <v>449779</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2704,13 @@
         <v>328541</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>543</v>
@@ -2704,13 +2719,13 @@
         <v>507448</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>863</v>
@@ -2719,13 +2734,13 @@
         <v>835989</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2796,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2793,13 +2808,13 @@
         <v>51204</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>74</v>
@@ -2808,13 +2823,13 @@
         <v>59661</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>120</v>
@@ -2823,13 +2838,13 @@
         <v>110864</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2859,13 @@
         <v>635215</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H33" s="7">
         <v>789</v>
@@ -2859,13 +2874,13 @@
         <v>638768</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M33" s="7">
         <v>1346</v>
@@ -2874,13 +2889,13 @@
         <v>1273983</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2910,13 @@
         <v>172324</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>199</v>
@@ -2910,13 +2925,13 @@
         <v>170005</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>357</v>
@@ -2925,13 +2940,13 @@
         <v>342330</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3014,13 @@
         <v>333254</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>435</v>
@@ -3014,13 +3029,13 @@
         <v>316698</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>734</v>
@@ -3029,13 +3044,13 @@
         <v>649952</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3065,13 @@
         <v>1629653</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>2369</v>
@@ -3065,13 +3080,13 @@
         <v>1698966</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>3939</v>
@@ -3080,13 +3095,13 @@
         <v>3328619</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3116,13 @@
         <v>1416497</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>2556</v>
@@ -3116,13 +3131,13 @@
         <v>1790042</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>4057</v>
@@ -3131,13 +3146,13 @@
         <v>3206539</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3208,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD28F583-08A9-4BEA-8BD0-50D4C5A5A38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A2F6A9-E4C1-4319-9DF5-A0992C904F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8672254C-8D11-46B9-BCAB-D5CBB94827D5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{47CC9419-3B83-4593-84ED-927482BACEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -71,763 +71,748 @@
     <t>Menos de una por semana</t>
   </si>
   <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>Uno por semana</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>Dos o más por semana</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>Uno por semana</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>Dos o más por semana</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>30,25%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1242,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF84B8B-80F2-417A-9CE4-68AD817545E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0173F34-BA01-4A74-A9D9-4788953592FF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1363,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>7420</v>
+        <v>9450</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1378,7 +1363,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>13350</v>
+        <v>16315</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1393,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>20770</v>
+        <v>25765</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1414,7 +1399,7 @@
         <v>130</v>
       </c>
       <c r="D5" s="7">
-        <v>103426</v>
+        <v>124337</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1429,7 +1414,7 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>101597</v>
+        <v>107818</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1444,7 +1429,7 @@
         <v>336</v>
       </c>
       <c r="N5" s="7">
-        <v>205023</v>
+        <v>232155</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1465,7 +1450,7 @@
         <v>192</v>
       </c>
       <c r="D6" s="7">
-        <v>149451</v>
+        <v>177655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1480,7 +1465,7 @@
         <v>312</v>
       </c>
       <c r="I6" s="7">
-        <v>156456</v>
+        <v>165502</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1495,7 +1480,7 @@
         <v>504</v>
       </c>
       <c r="N6" s="7">
-        <v>305906</v>
+        <v>343157</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1516,7 +1501,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1531,7 +1516,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1546,7 +1531,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1569,7 +1554,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>104944</v>
+        <v>104058</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1584,7 +1569,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="7">
-        <v>103274</v>
+        <v>95282</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1599,7 +1584,7 @@
         <v>207</v>
       </c>
       <c r="N8" s="7">
-        <v>208218</v>
+        <v>199340</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1620,7 +1605,7 @@
         <v>195</v>
       </c>
       <c r="D9" s="7">
-        <v>264353</v>
+        <v>263866</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1635,7 +1620,7 @@
         <v>376</v>
       </c>
       <c r="I9" s="7">
-        <v>295161</v>
+        <v>274445</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1650,7 +1635,7 @@
         <v>571</v>
       </c>
       <c r="N9" s="7">
-        <v>559514</v>
+        <v>538311</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1671,7 +1656,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="7">
-        <v>150000</v>
+        <v>150466</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1686,7 +1671,7 @@
         <v>208</v>
       </c>
       <c r="I10" s="7">
-        <v>156132</v>
+        <v>145242</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1701,7 +1686,7 @@
         <v>321</v>
       </c>
       <c r="N10" s="7">
-        <v>306132</v>
+        <v>295708</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1722,7 +1707,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1737,7 +1722,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1737,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1775,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>24701</v>
+        <v>24253</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1790,7 +1775,7 @@
         <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>36281</v>
+        <v>33820</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1805,7 +1790,7 @@
         <v>74</v>
       </c>
       <c r="N12" s="7">
-        <v>60982</v>
+        <v>58073</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1826,7 +1811,7 @@
         <v>152</v>
       </c>
       <c r="D13" s="7">
-        <v>137256</v>
+        <v>134982</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1841,7 +1826,7 @@
         <v>189</v>
       </c>
       <c r="I13" s="7">
-        <v>126986</v>
+        <v>118487</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1856,7 +1841,7 @@
         <v>341</v>
       </c>
       <c r="N13" s="7">
-        <v>264242</v>
+        <v>253469</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1877,7 +1862,7 @@
         <v>179</v>
       </c>
       <c r="D14" s="7">
-        <v>157728</v>
+        <v>154272</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1892,7 +1877,7 @@
         <v>300</v>
       </c>
       <c r="I14" s="7">
-        <v>210018</v>
+        <v>196821</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1907,7 +1892,7 @@
         <v>479</v>
       </c>
       <c r="N14" s="7">
-        <v>367745</v>
+        <v>351092</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1928,7 +1913,7 @@
         <v>358</v>
       </c>
       <c r="D15" s="7">
-        <v>319685</v>
+        <v>313507</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1943,7 +1928,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1958,7 +1943,7 @@
         <v>894</v>
       </c>
       <c r="N15" s="7">
-        <v>692969</v>
+        <v>662634</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1981,7 +1966,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>22804</v>
+        <v>22124</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -1996,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>25498</v>
+        <v>23723</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2011,7 +1996,7 @@
         <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>48302</v>
+        <v>45847</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -2032,7 +2017,7 @@
         <v>96</v>
       </c>
       <c r="D17" s="7">
-        <v>96392</v>
+        <v>92322</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2047,7 +2032,7 @@
         <v>163</v>
       </c>
       <c r="I17" s="7">
-        <v>122971</v>
+        <v>169074</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2062,7 +2047,7 @@
         <v>259</v>
       </c>
       <c r="N17" s="7">
-        <v>219363</v>
+        <v>261396</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
@@ -2083,7 +2068,7 @@
         <v>173</v>
       </c>
       <c r="D18" s="7">
-        <v>201537</v>
+        <v>196670</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -2098,7 +2083,7 @@
         <v>396</v>
       </c>
       <c r="I18" s="7">
-        <v>278930</v>
+        <v>281845</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -2113,7 +2098,7 @@
         <v>569</v>
       </c>
       <c r="N18" s="7">
-        <v>480467</v>
+        <v>478514</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>122</v>
@@ -2134,7 +2119,7 @@
         <v>290</v>
       </c>
       <c r="D19" s="7">
-        <v>320733</v>
+        <v>311116</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2149,7 +2134,7 @@
         <v>597</v>
       </c>
       <c r="I19" s="7">
-        <v>427399</v>
+        <v>474642</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2164,7 +2149,7 @@
         <v>887</v>
       </c>
       <c r="N19" s="7">
-        <v>748132</v>
+        <v>785757</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2187,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>5768</v>
+        <v>5248</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>126</v>
@@ -2202,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>2496</v>
+        <v>2281</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>129</v>
@@ -2217,7 +2202,7 @@
         <v>14</v>
       </c>
       <c r="N20" s="7">
-        <v>8264</v>
+        <v>7529</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>132</v>
@@ -2238,7 +2223,7 @@
         <v>78</v>
       </c>
       <c r="D21" s="7">
-        <v>60054</v>
+        <v>54045</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>135</v>
@@ -2253,7 +2238,7 @@
         <v>115</v>
       </c>
       <c r="I21" s="7">
-        <v>53170</v>
+        <v>47641</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>138</v>
@@ -2268,7 +2253,7 @@
         <v>193</v>
       </c>
       <c r="N21" s="7">
-        <v>113224</v>
+        <v>101686</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>141</v>
@@ -2289,7 +2274,7 @@
         <v>193</v>
       </c>
       <c r="D22" s="7">
-        <v>130926</v>
+        <v>119449</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>144</v>
@@ -2304,7 +2289,7 @@
         <v>370</v>
       </c>
       <c r="I22" s="7">
-        <v>175830</v>
+        <v>158352</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>147</v>
@@ -2319,7 +2304,7 @@
         <v>563</v>
       </c>
       <c r="N22" s="7">
-        <v>306756</v>
+        <v>277801</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>150</v>
@@ -2340,7 +2325,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2355,7 +2340,7 @@
         <v>491</v>
       </c>
       <c r="I23" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2370,7 +2355,7 @@
         <v>770</v>
       </c>
       <c r="N23" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2393,7 +2378,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>30622</v>
+        <v>29999</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>154</v>
@@ -2408,7 +2393,7 @@
         <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>17521</v>
+        <v>16273</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>157</v>
@@ -2423,16 +2408,16 @@
         <v>68</v>
       </c>
       <c r="N24" s="7">
-        <v>48142</v>
+        <v>46272</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,46 +2429,46 @@
         <v>157</v>
       </c>
       <c r="D25" s="7">
-        <v>120612</v>
+        <v>117752</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>205</v>
       </c>
       <c r="I25" s="7">
-        <v>122878</v>
+        <v>114944</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
       </c>
       <c r="N25" s="7">
-        <v>243490</v>
+        <v>232696</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,46 +2480,46 @@
         <v>173</v>
       </c>
       <c r="D26" s="7">
-        <v>125989</v>
+        <v>121885</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>228</v>
       </c>
       <c r="I26" s="7">
-        <v>135223</v>
+        <v>125839</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>401</v>
       </c>
       <c r="N26" s="7">
-        <v>261212</v>
+        <v>247724</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,7 +2531,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2561,7 +2546,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2576,7 +2561,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2590,7 +2575,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2599,46 +2584,46 @@
         <v>73</v>
       </c>
       <c r="D28" s="7">
-        <v>85792</v>
+        <v>90388</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
       </c>
       <c r="I28" s="7">
-        <v>58619</v>
+        <v>54440</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>163</v>
       </c>
       <c r="N28" s="7">
-        <v>144411</v>
+        <v>144828</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,46 +2635,46 @@
         <v>205</v>
       </c>
       <c r="D29" s="7">
-        <v>212344</v>
+        <v>210060</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>326</v>
       </c>
       <c r="I29" s="7">
-        <v>237435</v>
+        <v>222360</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>531</v>
       </c>
       <c r="N29" s="7">
-        <v>449779</v>
+        <v>432420</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,46 +2686,46 @@
         <v>320</v>
       </c>
       <c r="D30" s="7">
-        <v>328541</v>
+        <v>322802</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>543</v>
       </c>
       <c r="I30" s="7">
-        <v>507448</v>
+        <v>571823</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>863</v>
       </c>
       <c r="N30" s="7">
-        <v>835989</v>
+        <v>894624</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2737,7 @@
         <v>598</v>
       </c>
       <c r="D31" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2767,7 +2752,7 @@
         <v>959</v>
       </c>
       <c r="I31" s="7">
-        <v>803502</v>
+        <v>848623</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -2782,7 +2767,7 @@
         <v>1557</v>
       </c>
       <c r="N31" s="7">
-        <v>1430179</v>
+        <v>1471872</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2796,7 +2781,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2805,46 +2790,46 @@
         <v>46</v>
       </c>
       <c r="D32" s="7">
-        <v>51204</v>
+        <v>43095</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>74</v>
       </c>
       <c r="I32" s="7">
-        <v>59661</v>
+        <v>50062</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="M32" s="7">
         <v>120</v>
       </c>
       <c r="N32" s="7">
-        <v>110864</v>
+        <v>93157</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,46 +2841,46 @@
         <v>557</v>
       </c>
       <c r="D33" s="7">
-        <v>635215</v>
+        <v>739144</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H33" s="7">
         <v>789</v>
       </c>
       <c r="I33" s="7">
-        <v>638768</v>
+        <v>528097</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>1346</v>
       </c>
       <c r="N33" s="7">
-        <v>1273983</v>
+        <v>1267241</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,46 +2892,46 @@
         <v>158</v>
       </c>
       <c r="D34" s="7">
-        <v>172324</v>
+        <v>145885</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>199</v>
       </c>
       <c r="I34" s="7">
-        <v>170005</v>
+        <v>139572</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>357</v>
       </c>
       <c r="N34" s="7">
-        <v>342330</v>
+        <v>285456</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,7 +2943,7 @@
         <v>761</v>
       </c>
       <c r="D35" s="7">
-        <v>858743</v>
+        <v>928123</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2973,7 +2958,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -2988,7 +2973,7 @@
         <v>1823</v>
       </c>
       <c r="N35" s="7">
-        <v>1727177</v>
+        <v>1645854</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -3011,46 +2996,46 @@
         <v>299</v>
       </c>
       <c r="D36" s="7">
-        <v>333254</v>
+        <v>328614</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>435</v>
       </c>
       <c r="I36" s="7">
-        <v>316698</v>
+        <v>292197</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>734</v>
       </c>
       <c r="N36" s="7">
-        <v>649952</v>
+        <v>620811</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,46 +3047,46 @@
         <v>1570</v>
       </c>
       <c r="D37" s="7">
-        <v>1629653</v>
+        <v>1736507</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>2369</v>
       </c>
       <c r="I37" s="7">
-        <v>1698966</v>
+        <v>1582867</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>3939</v>
       </c>
       <c r="N37" s="7">
-        <v>3328619</v>
+        <v>3319374</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,46 +3098,46 @@
         <v>1501</v>
       </c>
       <c r="D38" s="7">
-        <v>1416497</v>
+        <v>1389084</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>2556</v>
       </c>
       <c r="I38" s="7">
-        <v>1790042</v>
+        <v>1784993</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M38" s="7">
         <v>4057</v>
       </c>
       <c r="N38" s="7">
-        <v>3206539</v>
+        <v>3174077</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3149,7 @@
         <v>3370</v>
       </c>
       <c r="D39" s="7">
-        <v>3379404</v>
+        <v>3454205</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3179,7 +3164,7 @@
         <v>5360</v>
       </c>
       <c r="I39" s="7">
-        <v>3805707</v>
+        <v>3660057</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3194,7 +3179,7 @@
         <v>8730</v>
       </c>
       <c r="N39" s="7">
-        <v>7185110</v>
+        <v>7114262</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3208,7 +3193,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
